--- a/biology/Médecine/ACSA-CAAH/ACSA-CAAH.xlsx
+++ b/biology/Médecine/ACSA-CAAH/ACSA-CAAH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Association Canadienne pour la Santé des Adolescents (en anglais The Canadian Association for Adolescent Health) est une organisation à but non lucratif, multi-disciplinaire basée à Montréal, au Québec qui fait la promotion de la santé auprès des adolescents âgées de 10 à 19 ans[1]. L'organisation publie un journal et réalise des conférences dans le but de mettre en place des normes de soins médicaux auprès des adolescents à travers le Canada. Fondée en 1993 par Jean-Yves Frappier, pédiatre au Centre hospitalier universitaire Sainte-Justine[2], l'ACSA a été incorporé en 1996[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Association Canadienne pour la Santé des Adolescents (en anglais The Canadian Association for Adolescent Health) est une organisation à but non lucratif, multi-disciplinaire basée à Montréal, au Québec qui fait la promotion de la santé auprès des adolescents âgées de 10 à 19 ans. L'organisation publie un journal et réalise des conférences dans le but de mettre en place des normes de soins médicaux auprès des adolescents à travers le Canada. Fondée en 1993 par Jean-Yves Frappier, pédiatre au Centre hospitalier universitaire Sainte-Justine, l'ACSA a été incorporé en 1996.
 </t>
         </is>
       </c>
